--- a/KeywordDriven_Framework/ExcelTestFiles/Reusable/login.xlsx
+++ b/KeywordDriven_Framework/ExcelTestFiles/Reusable/login.xlsx
@@ -7,17 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
-  <si>
-    <t>S..No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t>Page Name</t>
   </si>
@@ -31,9 +29,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>DP_URL</t>
   </si>
   <si>
@@ -61,56 +56,52 @@
     <t>Click</t>
   </si>
   <si>
-    <t>Reservation</t>
-  </si>
-  <si>
-    <t>Departingfrom</t>
-  </si>
-  <si>
-    <t>selectItem</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Passanger Count</t>
-  </si>
-  <si>
-    <t>selectItemByIndex</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>refreshbrowser</t>
-  </si>
-  <si>
-    <t>goback</t>
-  </si>
-  <si>
-    <t>goforward</t>
-  </si>
-  <si>
-    <t>closeallbrowsers</t>
-  </si>
-  <si>
     <t>dologin</t>
   </si>
   <si>
     <t>dologinwithoutCookies</t>
+  </si>
+  <si>
+    <t>clearBrowserCookies</t>
+  </si>
+  <si>
+    <t>ReusableName</t>
+  </si>
+  <si>
+    <t>http://newtours.demoaut.com/mercurysignon.php</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>dologinwithincorrectCredentials</t>
+  </si>
+  <si>
+    <t>dologinandlogout</t>
+  </si>
+  <si>
+    <t>GetPage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,32 +145,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,259 +481,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F10" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>